--- a/output/inference_results/test_sheets/batch_002/test_sheet (14).xlsx
+++ b/output/inference_results/test_sheets/batch_002/test_sheet (14).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,174 +424,106 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>参数</t>
+          <t>报警</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>报警</t>
+          <t>结果</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>结果</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
           <t>参考范围</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>MCV平均红细胞体积</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>85.1fL</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>85.1fL</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t>82.0-95.0</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>MCH平均红细胞血红蛋白</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>27.0pg</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>27.0pg</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
           <t>27.0-31.0</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>MCHC平均红细胞血红蛋白浓度</t>
-        </is>
-      </c>
+      <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>318g/L</t>
+          <t>318</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>318g/L</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
           <t>320-360</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>RDW-CV红细胞分布宽度变异系数</t>
-        </is>
-      </c>
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>13.2%</t>
+          <t>13.2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13.2%</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11.5- 14.5</t>
+          <t>11.5-14.5</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>RDW-SD红细胞分布宽度标准差</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>42.8 fL</t>
+          <t>42.8</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>42.8 fL</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
           <t>35.0-56.0</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>PLT血小板数目</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>220×10</t>
+          <t>220</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>220×10</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
           <t>100-300</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>MPV平均血小板体积</t>
-        </is>
-      </c>
+      <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8.5fL</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
-        <is>
-          <t>8.5fL</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
         <is>
           <t>7.0-11.0</t>
         </is>
@@ -600,42 +532,28 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PDW血小板分布宽度</t>
+          <t>H17.1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>H 17.1</t>
+          <t>H17.1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>H 17.1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
           <t>15.0-17.0</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>PCT红小板压积</t>
-        </is>
-      </c>
+      <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.187%</t>
+          <t>0.187</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
-        <is>
-          <t>0.187%</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
         <is>
           <t>0.108-0.282</t>
         </is>
